--- a/resources/IDU.xlsx
+++ b/resources/IDU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20030" windowHeight="10680"/>
+    <workbookView windowWidth="23230" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,14 +708,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1249,7 +1246,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1303,83 +1300,83 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
